--- a/data/backgrounds.xlsx
+++ b/data/backgrounds.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jessicatan2020-21\git 8\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jessicatan2020-21\git 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD693F10-69DB-4190-A83D-68177D5A8F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6326AB0-AF4D-4E6C-AF6F-ECDE868CD4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{A31A1922-7787-45E2-9486-33973C9B0D08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$102</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -288,9 +291,6 @@
     <t>Minister of Armed Forces (1990 - 2001)</t>
   </si>
   <si>
-    <t>Inge Ferro</t>
-  </si>
-  <si>
     <t>Ingmar Casablancas</t>
   </si>
   <si>
@@ -510,9 +510,6 @@
     <t>Government Spokesman (2005 - )</t>
   </si>
   <si>
-    <t>Ruscella Haber</t>
-  </si>
-  <si>
     <t>Admin at GAStech, Aunt of Minke Mies</t>
   </si>
   <si>
@@ -598,6 +595,12 @@
   </si>
   <si>
     <t>Current POK Member, niece of Henk Bodrogi, born 1992, daughter of Katje Ferro and Loreto Bodrogi</t>
+  </si>
+  <si>
+    <t>Inga Ferro</t>
+  </si>
+  <si>
+    <t>Ruscella.Mies.Haber</t>
   </si>
 </sst>
 </file>
@@ -982,7 +985,7 @@
   <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1454,13 +1457,13 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1470,58 +1473,58 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>4</v>
@@ -1532,106 +1535,106 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="2" t="s">
@@ -1640,47 +1643,47 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>4</v>
@@ -1691,58 +1694,58 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>17</v>
@@ -1753,7 +1756,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>4</v>
@@ -1764,7 +1767,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>4</v>
@@ -1775,7 +1778,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>4</v>
@@ -1786,258 +1789,258 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>4</v>
@@ -2048,7 +2051,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>17</v>
@@ -2059,29 +2062,29 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>4</v>
